--- a/Processed Results/Mi 9T/Cpu.xlsx
+++ b/Processed Results/Mi 9T/Cpu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Downloads\Processed Results\Mi 9T\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Mi 9T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A087B564-AC0D-45F5-B7A5-59627151B499}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB13438-FF3F-4E0D-8779-9CF5507A8148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="18">
   <si>
     <t>Mean line</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
+  <si>
+    <t>Relative std</t>
   </si>
 </sst>
 </file>
@@ -7192,8 +7198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FE0459-F6C0-45BE-AD60-56F63431C3F0}">
   <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M85" sqref="M85"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7384,6 +7390,12 @@
       <c r="B15" s="1">
         <v>101.54106</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -7392,6 +7404,14 @@
       <c r="B16" s="1">
         <v>101.698488</v>
       </c>
+      <c r="D16">
+        <f>STDEV(B2:B31)</f>
+        <v>2.9828873338770054</v>
+      </c>
+      <c r="E16">
+        <f xml:space="preserve"> (D16 / E4) * 100</f>
+        <v>2.899111894598406</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -7697,6 +7717,12 @@
       <c r="B47" s="1">
         <v>106.057728</v>
       </c>
+      <c r="D47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
@@ -7705,6 +7731,14 @@
       <c r="B48" s="1">
         <v>105.110784</v>
       </c>
+      <c r="D48">
+        <f>STDEV(B34:B63)</f>
+        <v>0.52012334203432764</v>
+      </c>
+      <c r="E48">
+        <f xml:space="preserve"> (D48 / E36) * 100</f>
+        <v>0.49411628631388266</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
@@ -8010,6 +8044,12 @@
       <c r="B79" s="1">
         <v>114.03741599999999</v>
       </c>
+      <c r="D79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
@@ -8017,6 +8057,14 @@
       </c>
       <c r="B80" s="1">
         <v>114.51456</v>
+      </c>
+      <c r="D80">
+        <f>STDEV(B66:B95)</f>
+        <v>1.2030963084673518</v>
+      </c>
+      <c r="E80">
+        <f xml:space="preserve"> (D80 / E68) * 100</f>
+        <v>1.0524082737757776</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
